--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cfh-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cfh-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.362097333333333</v>
+        <v>0.6292110000000001</v>
       </c>
       <c r="H2">
-        <v>4.086292</v>
+        <v>1.887633</v>
       </c>
       <c r="I2">
-        <v>0.0196292037450248</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="J2">
-        <v>0.0196292037450248</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P2">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q2">
-        <v>0.1944026177053333</v>
+        <v>0.08980288155300002</v>
       </c>
       <c r="R2">
-        <v>1.749623559348</v>
+        <v>0.808225933977</v>
       </c>
       <c r="S2">
-        <v>9.241238237704639E-06</v>
+        <v>1.040120003370378E-05</v>
       </c>
       <c r="T2">
-        <v>9.241238237704638E-06</v>
+        <v>1.040120003370378E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.362097333333333</v>
+        <v>0.6292110000000001</v>
       </c>
       <c r="H3">
-        <v>4.086292</v>
+        <v>1.887633</v>
       </c>
       <c r="I3">
-        <v>0.0196292037450248</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="J3">
-        <v>0.0196292037450248</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N3">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O3">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P3">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q3">
-        <v>201.7104914664996</v>
+        <v>54.38132687027701</v>
       </c>
       <c r="R3">
-        <v>1815.394423198496</v>
+        <v>489.4319418324931</v>
       </c>
       <c r="S3">
-        <v>0.009588629662959895</v>
+        <v>0.006298584734635231</v>
       </c>
       <c r="T3">
-        <v>0.009588629662959891</v>
+        <v>0.006298584734635231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.362097333333333</v>
+        <v>0.6292110000000001</v>
       </c>
       <c r="H4">
-        <v>4.086292</v>
+        <v>1.887633</v>
       </c>
       <c r="I4">
-        <v>0.0196292037450248</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="J4">
-        <v>0.0196292037450248</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>154.9253336666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N4">
-        <v>464.776001</v>
+        <v>0.019084</v>
       </c>
       <c r="O4">
-        <v>0.5110412512973043</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P4">
-        <v>0.5110412512973042</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q4">
-        <v>211.0233838531436</v>
+        <v>0.004002620908000001</v>
       </c>
       <c r="R4">
-        <v>1899.210454678292</v>
+        <v>0.036023588172</v>
       </c>
       <c r="S4">
-        <v>0.0100313328438272</v>
+        <v>4.635938179625405E-07</v>
       </c>
       <c r="T4">
-        <v>0.0100313328438272</v>
+        <v>4.635938179625405E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.05951033333333</v>
+        <v>0.6292110000000001</v>
       </c>
       <c r="H5">
-        <v>72.17853099999999</v>
+        <v>1.887633</v>
       </c>
       <c r="I5">
-        <v>0.3467219403350491</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="J5">
-        <v>0.3467219403350491</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.142723</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N5">
-        <v>0.428169</v>
+        <v>184.299025</v>
       </c>
       <c r="O5">
-        <v>0.0004707902754357479</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P5">
-        <v>0.0004707902754357478</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q5">
-        <v>3.433845493304333</v>
+        <v>38.65432460642501</v>
       </c>
       <c r="R5">
-        <v>30.90460943973899</v>
+        <v>347.888921457825</v>
       </c>
       <c r="S5">
-        <v>0.0001632333177899547</v>
+        <v>0.004477043001809039</v>
       </c>
       <c r="T5">
-        <v>0.0001632333177899547</v>
+        <v>0.004477043001809039</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>72.17853099999999</v>
       </c>
       <c r="I6">
-        <v>0.3467219403350491</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="J6">
-        <v>0.3467219403350491</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>148.0881626666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N6">
-        <v>444.264488</v>
+        <v>0.428169</v>
       </c>
       <c r="O6">
-        <v>0.4884879584272602</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P6">
-        <v>0.4884879584272601</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q6">
-        <v>3562.928679923014</v>
+        <v>3.433845493304334</v>
       </c>
       <c r="R6">
-        <v>32066.35811930713</v>
+        <v>30.904609439739</v>
       </c>
       <c r="S6">
-        <v>0.1693694927762064</v>
+        <v>0.000397716790853884</v>
       </c>
       <c r="T6">
-        <v>0.1693694927762064</v>
+        <v>0.0003977167908538839</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>72.17853099999999</v>
       </c>
       <c r="I7">
-        <v>0.3467219403350491</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="J7">
-        <v>0.3467219403350491</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>154.9253336666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N7">
-        <v>464.776001</v>
+        <v>259.283421</v>
       </c>
       <c r="O7">
-        <v>0.5110412512973043</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P7">
-        <v>0.5110412512973042</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q7">
-        <v>3727.427666248281</v>
+        <v>2079.410715603839</v>
       </c>
       <c r="R7">
-        <v>33546.84899623453</v>
+        <v>18714.69644043455</v>
       </c>
       <c r="S7">
-        <v>0.1771892142410527</v>
+        <v>0.2408426815620387</v>
       </c>
       <c r="T7">
-        <v>0.1771892142410527</v>
+        <v>0.2408426815620387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.711625</v>
+        <v>24.05951033333333</v>
       </c>
       <c r="H8">
-        <v>44.13487499999999</v>
+        <v>72.17853099999999</v>
       </c>
       <c r="I8">
-        <v>0.2120094338917045</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="J8">
-        <v>0.2120094338917045</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.142723</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N8">
-        <v>0.428169</v>
+        <v>0.019084</v>
       </c>
       <c r="O8">
-        <v>0.0004707902754357479</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P8">
-        <v>0.0004707902754357478</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q8">
-        <v>2.099687254875</v>
+        <v>0.1530505650671111</v>
       </c>
       <c r="R8">
-        <v>18.897185293875</v>
+        <v>1.377455085604</v>
       </c>
       <c r="S8">
-        <v>9.981197977685257E-05</v>
+        <v>1.772670893188325E-05</v>
       </c>
       <c r="T8">
-        <v>9.981197977685256E-05</v>
+        <v>1.772670893188325E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.711625</v>
+        <v>24.05951033333333</v>
       </c>
       <c r="H9">
-        <v>44.13487499999999</v>
+        <v>72.17853099999999</v>
       </c>
       <c r="I9">
-        <v>0.2120094338917045</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="J9">
-        <v>0.2120094338917045</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.0881626666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N9">
-        <v>444.264488</v>
+        <v>184.299025</v>
       </c>
       <c r="O9">
-        <v>0.4884879584272602</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P9">
-        <v>0.4884879584272601</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q9">
-        <v>2178.617516091</v>
+        <v>1478.048098803586</v>
       </c>
       <c r="R9">
-        <v>19607.557644819</v>
+        <v>13302.43288923227</v>
       </c>
       <c r="S9">
-        <v>0.1035640555290779</v>
+        <v>0.1711913211383816</v>
       </c>
       <c r="T9">
-        <v>0.1035640555290779</v>
+        <v>0.1711913211383816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.711625</v>
+        <v>16.061552</v>
       </c>
       <c r="H10">
-        <v>44.13487499999999</v>
+        <v>48.184656</v>
       </c>
       <c r="I10">
-        <v>0.2120094338917045</v>
+        <v>0.2753413571488099</v>
       </c>
       <c r="J10">
-        <v>0.2120094338917045</v>
+        <v>0.2753413571488098</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>154.9253336666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N10">
-        <v>464.776001</v>
+        <v>0.428169</v>
       </c>
       <c r="O10">
-        <v>0.5110412512973043</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P10">
-        <v>0.5110412512973042</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q10">
-        <v>2279.203411903874</v>
+        <v>2.292352886096001</v>
       </c>
       <c r="R10">
-        <v>20512.83070713487</v>
+        <v>20.631175974864</v>
       </c>
       <c r="S10">
-        <v>0.1083455663828498</v>
+        <v>0.0002655061898214353</v>
       </c>
       <c r="T10">
-        <v>0.1083455663828498</v>
+        <v>0.0002655061898214352</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.641521</v>
+        <v>16.061552</v>
       </c>
       <c r="H11">
-        <v>4.924563000000001</v>
+        <v>48.184656</v>
       </c>
       <c r="I11">
-        <v>0.02365598211831425</v>
+        <v>0.2753413571488099</v>
       </c>
       <c r="J11">
-        <v>0.02365598211831425</v>
+        <v>0.2753413571488098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.142723</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N11">
-        <v>0.428169</v>
+        <v>259.283421</v>
       </c>
       <c r="O11">
-        <v>0.0004707902754357479</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P11">
-        <v>0.0004707902754357478</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q11">
-        <v>0.234282801683</v>
+        <v>1388.164716376464</v>
       </c>
       <c r="R11">
-        <v>2.108545215147</v>
+        <v>12493.48244738818</v>
       </c>
       <c r="S11">
-        <v>1.113700633718429E-05</v>
+        <v>0.1607807972869991</v>
       </c>
       <c r="T11">
-        <v>1.113700633718429E-05</v>
+        <v>0.1607807972869991</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.641521</v>
+        <v>16.061552</v>
       </c>
       <c r="H12">
-        <v>4.924563000000001</v>
+        <v>48.184656</v>
       </c>
       <c r="I12">
-        <v>0.02365598211831425</v>
+        <v>0.2753413571488099</v>
       </c>
       <c r="J12">
-        <v>0.02365598211831425</v>
+        <v>0.2753413571488098</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>148.0881626666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N12">
-        <v>444.264488</v>
+        <v>0.019084</v>
       </c>
       <c r="O12">
-        <v>0.4884879584272602</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P12">
-        <v>0.4884879584272601</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q12">
-        <v>243.0898288687494</v>
+        <v>0.1021728861226667</v>
       </c>
       <c r="R12">
-        <v>2187.808459818745</v>
+        <v>0.9195559751040001</v>
       </c>
       <c r="S12">
-        <v>0.0115556624095671</v>
+        <v>1.183392568484003E-05</v>
       </c>
       <c r="T12">
-        <v>0.0115556624095671</v>
+        <v>1.183392568484003E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.641521</v>
+        <v>16.061552</v>
       </c>
       <c r="H13">
-        <v>4.924563000000001</v>
+        <v>48.184656</v>
       </c>
       <c r="I13">
-        <v>0.02365598211831425</v>
+        <v>0.2753413571488099</v>
       </c>
       <c r="J13">
-        <v>0.02365598211831425</v>
+        <v>0.2753413571488098</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>154.9253336666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N13">
-        <v>464.776001</v>
+        <v>184.299025</v>
       </c>
       <c r="O13">
-        <v>0.5110412512973043</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P13">
-        <v>0.5110412512973042</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q13">
-        <v>254.3131886458404</v>
+        <v>986.7094578622668</v>
       </c>
       <c r="R13">
-        <v>2288.818697812563</v>
+        <v>8880.3851207604</v>
       </c>
       <c r="S13">
-        <v>0.01208918270240997</v>
+        <v>0.1142832197463045</v>
       </c>
       <c r="T13">
-        <v>0.01208918270240997</v>
+        <v>0.1142832197463045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.616616</v>
+        <v>1.855556</v>
       </c>
       <c r="H14">
-        <v>82.84984800000001</v>
+        <v>5.566668</v>
       </c>
       <c r="I14">
-        <v>0.3979834399099074</v>
+        <v>0.03180958523221274</v>
       </c>
       <c r="J14">
-        <v>0.3979834399099074</v>
+        <v>0.03180958523221274</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,27 +1308,27 @@
         <v>0.428169</v>
       </c>
       <c r="O14">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P14">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q14">
-        <v>3.941526285368</v>
+        <v>0.264830518988</v>
       </c>
       <c r="R14">
-        <v>35.473736568312</v>
+        <v>2.383474670892</v>
       </c>
       <c r="S14">
-        <v>0.0001873667332940517</v>
+        <v>3.067334984566268E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001873667332940517</v>
+        <v>3.067334984566268E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.616616</v>
+        <v>1.855556</v>
       </c>
       <c r="H15">
-        <v>82.84984800000001</v>
+        <v>5.566668</v>
       </c>
       <c r="I15">
-        <v>0.3979834399099074</v>
+        <v>0.03180958523221274</v>
       </c>
       <c r="J15">
-        <v>0.3979834399099074</v>
+        <v>0.03180958523221274</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N15">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O15">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P15">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q15">
-        <v>4089.69392251087</v>
+        <v>160.371635845692</v>
       </c>
       <c r="R15">
-        <v>36807.24530259783</v>
+        <v>1443.344722611228</v>
       </c>
       <c r="S15">
-        <v>0.1944101180494489</v>
+        <v>0.0185746541237531</v>
       </c>
       <c r="T15">
-        <v>0.1944101180494488</v>
+        <v>0.0185746541237531</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.855556</v>
+      </c>
+      <c r="H16">
+        <v>5.566668</v>
+      </c>
+      <c r="I16">
+        <v>0.03180958523221274</v>
+      </c>
+      <c r="J16">
+        <v>0.03180958523221274</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.006361333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.019084</v>
+      </c>
+      <c r="O16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="P16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.01180381023466667</v>
+      </c>
+      <c r="R16">
+        <v>0.106234292112</v>
+      </c>
+      <c r="S16">
+        <v>1.367147571296909E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.367147571296909E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.855556</v>
+      </c>
+      <c r="H17">
+        <v>5.566668</v>
+      </c>
+      <c r="I17">
+        <v>0.03180958523221274</v>
+      </c>
+      <c r="J17">
+        <v>0.03180958523221274</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N17">
+        <v>184.299025</v>
+      </c>
+      <c r="O17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q17">
+        <v>113.9923872109667</v>
+      </c>
+      <c r="R17">
+        <v>1025.9314848987</v>
+      </c>
+      <c r="S17">
+        <v>0.01320289061104267</v>
+      </c>
+      <c r="T17">
+        <v>0.01320289061104267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>27.616616</v>
-      </c>
-      <c r="H16">
-        <v>82.84984800000001</v>
-      </c>
-      <c r="I16">
-        <v>0.3979834399099074</v>
-      </c>
-      <c r="J16">
-        <v>0.3979834399099074</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>154.9253336666667</v>
-      </c>
-      <c r="N16">
-        <v>464.776001</v>
-      </c>
-      <c r="O16">
-        <v>0.5110412512973043</v>
-      </c>
-      <c r="P16">
-        <v>0.5110412512973042</v>
-      </c>
-      <c r="Q16">
-        <v>4278.513448544206</v>
-      </c>
-      <c r="R16">
-        <v>38506.62103689785</v>
-      </c>
-      <c r="S16">
-        <v>0.2033859551271646</v>
-      </c>
-      <c r="T16">
-        <v>0.2033859551271645</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>15.72740533333333</v>
+      </c>
+      <c r="H18">
+        <v>47.182216</v>
+      </c>
+      <c r="I18">
+        <v>0.2696131188884753</v>
+      </c>
+      <c r="J18">
+        <v>0.2696131188884753</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.142723</v>
+      </c>
+      <c r="N18">
+        <v>0.428169</v>
+      </c>
+      <c r="O18">
+        <v>0.0009642800942465787</v>
+      </c>
+      <c r="P18">
+        <v>0.0009642800942465787</v>
+      </c>
+      <c r="Q18">
+        <v>2.244662471389333</v>
+      </c>
+      <c r="R18">
+        <v>20.201962242504</v>
+      </c>
+      <c r="S18">
+        <v>0.000259982563691893</v>
+      </c>
+      <c r="T18">
+        <v>0.000259982563691893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>15.72740533333333</v>
+      </c>
+      <c r="H19">
+        <v>47.182216</v>
+      </c>
+      <c r="I19">
+        <v>0.2696131188884753</v>
+      </c>
+      <c r="J19">
+        <v>0.2696131188884753</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>86.42780700000002</v>
+      </c>
+      <c r="N19">
+        <v>259.283421</v>
+      </c>
+      <c r="O19">
+        <v>0.5839326098770704</v>
+      </c>
+      <c r="P19">
+        <v>0.5839326098770704</v>
+      </c>
+      <c r="Q19">
+        <v>1359.285152760104</v>
+      </c>
+      <c r="R19">
+        <v>12233.56637484094</v>
+      </c>
+      <c r="S19">
+        <v>0.1574358921696443</v>
+      </c>
+      <c r="T19">
+        <v>0.1574358921696443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>15.72740533333333</v>
+      </c>
+      <c r="H20">
+        <v>47.182216</v>
+      </c>
+      <c r="I20">
+        <v>0.2696131188884753</v>
+      </c>
+      <c r="J20">
+        <v>0.2696131188884753</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.006361333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.019084</v>
+      </c>
+      <c r="O20">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="P20">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="Q20">
+        <v>0.1000472677937778</v>
+      </c>
+      <c r="R20">
+        <v>0.9004254101439999</v>
+      </c>
+      <c r="S20">
+        <v>1.158773111901162E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.158773111901162E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>15.72740533333333</v>
+      </c>
+      <c r="H21">
+        <v>47.182216</v>
+      </c>
+      <c r="I21">
+        <v>0.2696131188884753</v>
+      </c>
+      <c r="J21">
+        <v>0.2696131188884753</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N21">
+        <v>184.299025</v>
+      </c>
+      <c r="O21">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P21">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q21">
+        <v>966.1818229043777</v>
+      </c>
+      <c r="R21">
+        <v>8695.6364061394</v>
+      </c>
+      <c r="S21">
+        <v>0.1119056564240201</v>
+      </c>
+      <c r="T21">
+        <v>0.1119056564240201</v>
       </c>
     </row>
   </sheetData>
